--- a/uploads/wage/temp.xlsx
+++ b/uploads/wage/temp.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>身份证</t>
   </si>
@@ -27,16 +27,10 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>510224197911190049</t>
+    <t>452228197807300034</t>
   </si>
   <si>
-    <t>徐梅</t>
-  </si>
-  <si>
-    <t>440902197910281215</t>
-  </si>
-  <si>
-    <t>陈兴</t>
+    <t>温科锋</t>
   </si>
 </sst>
 </file>
@@ -47,7 +41,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +74,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +115,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -123,8 +124,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -138,10 +140,14 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="?? 2" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 2 2 2 2 2 3" xfId="2"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -448,12 +454,12 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -467,7 +473,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -475,12 +481,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="4"/>
